--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.11.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.11.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619C02CF-6B4A-4BFE-85A1-97E60E061E4A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF24A4DE-7A85-40EE-8017-84E76B5546D3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -99,10 +99,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">   Accumulated Depreciation - 
-Building</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -163,6 +159,9 @@
       </rPr>
       <t>increasing.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   Accumulated Depreciation - Building</t>
   </si>
 </sst>
 </file>
@@ -304,11 +303,11 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,7 +636,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -677,20 +676,20 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6">
@@ -699,15 +698,15 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1"/>
   </sheetData>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.11.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.11.2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF24A4DE-7A85-40EE-8017-84E76B5546D3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F389F2-5832-4913-BDDF-A482F5084BD9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -61,7 +61,7 @@
         <color theme="1"/>
         <rFont val="Open Sans"/>
       </rPr>
-      <t>Depreciation Expense</t>
+      <t xml:space="preserve">Acc.Dep.Bldg </t>
     </r>
     <r>
       <rPr>
@@ -69,7 +69,7 @@
         <color theme="1"/>
         <rFont val="Open Sans"/>
       </rPr>
-      <t xml:space="preserve"> is an </t>
+      <t xml:space="preserve">is a </t>
     </r>
     <r>
       <rPr>
@@ -78,7 +78,7 @@
         <color theme="1"/>
         <rFont val="Open sans"/>
       </rPr>
-      <t xml:space="preserve">expense </t>
+      <t>contra</t>
     </r>
     <r>
       <rPr>
@@ -86,7 +86,7 @@
         <color theme="1"/>
         <rFont val="Open Sans"/>
       </rPr>
-      <t xml:space="preserve">account that is </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -95,73 +95,139 @@
         <color theme="1"/>
         <rFont val="Open sans"/>
       </rPr>
+      <t>asset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t xml:space="preserve"> account that is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Open sans"/>
+      </rPr>
       <t>increasing.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">   Accumulated Depreciation - Building</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Depreciation Expense</t>
+    </r>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Open Sans"/>
-      </rPr>
-      <t xml:space="preserve">Acc.Dep.Bldg </t>
-    </r>
-    <r>
-      <rPr>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">expense </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Open Sans"/>
-      </rPr>
-      <t xml:space="preserve">is a </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">account that is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>increasing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Depreciation Expense</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open sans"/>
-      </rPr>
-      <t>contra</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">expense </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">account that is </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open sans"/>
-      </rPr>
-      <t>asset</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
-      </rPr>
-      <t xml:space="preserve"> account that is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open sans"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>increasing.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">   Accumulated Depreciation - Building</t>
   </si>
 </sst>
 </file>
@@ -171,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,15 +265,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Open sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Open sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Open Sans"/>
     </font>
@@ -216,6 +273,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Open Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -285,29 +378,29 @@
     <xf numFmtId="37" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,7 +729,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G3" sqref="G3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -676,20 +769,20 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
-        <v>9</v>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6">
@@ -698,15 +791,15 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1"/>
   </sheetData>
